--- a/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1_EQ组.xlsx
+++ b/VersionRecords/Version 5.4.1 20170425/版本Bug和特性计划及评审表v5.4.1_EQ组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitRepertory\Mogo_Doc\VersionRecords\Version 5.4.1 20170425\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.4.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
   <si>
     <t>No</t>
   </si>
@@ -244,13 +239,57 @@
   </si>
   <si>
     <t>修正负责人</t>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>不紧急</t>
+  </si>
+  <si>
+    <t>城市开放改造</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>renterpc、bs、定时器</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓春</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.60.204/browse/EQ-841</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -262,6 +301,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -269,6 +309,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -276,12 +317,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -289,6 +332,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -296,12 +340,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -309,35 +355,41 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -345,6 +397,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -353,12 +406,14 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -370,12 +425,14 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -913,7 +970,7 @@
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="着色 4" xfId="5" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1271,14 +1328,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X165"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="I2" sqref="A2:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S6:S9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="48" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="48" customWidth="1"/>
@@ -1305,7 +1362,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="45" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="45" customFormat="1" ht="27">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -1376,33 +1433,67 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
+    <row r="2" spans="1:24" s="46" customFormat="1" ht="54">
+      <c r="A2" s="52">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="54">
+        <v>42846</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="54">
+        <v>42846</v>
+      </c>
       <c r="K2" s="53"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="53"/>
+      <c r="L2" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>75</v>
+      </c>
       <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="79"/>
+      <c r="O2" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="54">
+        <v>42846</v>
+      </c>
+      <c r="R2" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="79" t="s">
+        <v>79</v>
+      </c>
       <c r="T2" s="60"/>
       <c r="U2" s="60"/>
       <c r="V2" s="68"/>
       <c r="W2" s="63"/>
       <c r="X2" s="69"/>
     </row>
-    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -1428,7 +1519,7 @@
       <c r="W3" s="63"/>
       <c r="X3" s="69"/>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A4" s="52"/>
       <c r="B4" s="52"/>
       <c r="C4" s="52"/>
@@ -1454,7 +1545,7 @@
       <c r="W4" s="63"/>
       <c r="X4" s="69"/>
     </row>
-    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="46" customFormat="1" ht="16.5">
       <c r="A5" s="52"/>
       <c r="B5" s="52"/>
       <c r="C5" s="52"/>
@@ -1480,7 +1571,7 @@
       <c r="W5" s="63"/>
       <c r="X5" s="69"/>
     </row>
-    <row r="6" spans="1:24" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="47" customFormat="1" ht="16.5">
       <c r="A6" s="52"/>
       <c r="B6" s="52"/>
       <c r="C6" s="52"/>
@@ -1506,7 +1597,7 @@
       <c r="W6" s="71"/>
       <c r="X6" s="72"/>
     </row>
-    <row r="7" spans="1:24" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" s="47" customFormat="1" ht="16.5">
       <c r="A7" s="52"/>
       <c r="B7" s="52"/>
       <c r="C7" s="52"/>
@@ -1532,7 +1623,7 @@
       <c r="W7" s="71"/>
       <c r="X7" s="72"/>
     </row>
-    <row r="8" spans="1:24" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="47" customFormat="1" ht="16.5">
       <c r="A8" s="52"/>
       <c r="B8" s="52"/>
       <c r="C8" s="52"/>
@@ -1558,7 +1649,7 @@
       <c r="W8" s="71"/>
       <c r="X8" s="72"/>
     </row>
-    <row r="9" spans="1:24" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" s="47" customFormat="1" ht="16.5">
       <c r="A9" s="52"/>
       <c r="B9" s="52"/>
       <c r="C9" s="52"/>
@@ -1584,7 +1675,7 @@
       <c r="W9" s="71"/>
       <c r="X9" s="72"/>
     </row>
-    <row r="10" spans="1:24" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" s="47" customFormat="1" ht="16.5">
       <c r="A10" s="52"/>
       <c r="B10" s="52"/>
       <c r="C10" s="52"/>
@@ -1610,7 +1701,7 @@
       <c r="W10" s="71"/>
       <c r="X10" s="72"/>
     </row>
-    <row r="11" spans="1:24" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="47" customFormat="1" ht="16.5">
       <c r="A11" s="52"/>
       <c r="B11" s="52"/>
       <c r="C11" s="52"/>
@@ -1636,7 +1727,7 @@
       <c r="W11" s="71"/>
       <c r="X11" s="72"/>
     </row>
-    <row r="12" spans="1:24" s="47" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" s="47" customFormat="1" ht="16.5">
       <c r="A12" s="52"/>
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
@@ -1662,7 +1753,7 @@
       <c r="W12" s="73"/>
       <c r="X12" s="72"/>
     </row>
-    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" ht="16.5">
       <c r="A13" s="52"/>
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
@@ -1687,7 +1778,7 @@
       <c r="V13" s="60"/>
       <c r="W13" s="61"/>
     </row>
-    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" ht="16.5">
       <c r="A14" s="52"/>
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
@@ -1712,7 +1803,7 @@
       <c r="V14" s="60"/>
       <c r="W14" s="61"/>
     </row>
-    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" ht="16.5">
       <c r="A15" s="52"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
@@ -1737,7 +1828,7 @@
       <c r="V15" s="60"/>
       <c r="W15" s="61"/>
     </row>
-    <row r="16" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" ht="16.5">
       <c r="A16" s="52"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
@@ -1762,7 +1853,7 @@
       <c r="V16" s="60"/>
       <c r="W16" s="71"/>
     </row>
-    <row r="17" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="16.5">
       <c r="A17" s="52"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
@@ -1787,7 +1878,7 @@
       <c r="V17" s="60"/>
       <c r="W17" s="71"/>
     </row>
-    <row r="18" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="16.5">
       <c r="A18" s="52"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
@@ -1812,7 +1903,7 @@
       <c r="V18" s="60"/>
       <c r="W18" s="71"/>
     </row>
-    <row r="19" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="16.5">
       <c r="A19" s="52"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
@@ -1837,7 +1928,7 @@
       <c r="V19" s="74"/>
       <c r="W19" s="75"/>
     </row>
-    <row r="20" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="16.5">
       <c r="A20" s="52"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -1862,7 +1953,7 @@
       <c r="V20" s="76"/>
       <c r="W20" s="75"/>
     </row>
-    <row r="21" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="16.5">
       <c r="A21" s="52"/>
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
@@ -1887,7 +1978,7 @@
       <c r="V21" s="77"/>
       <c r="W21" s="75"/>
     </row>
-    <row r="22" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="16.5">
       <c r="A22" s="52"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -1912,7 +2003,7 @@
       <c r="V22" s="76"/>
       <c r="W22" s="75"/>
     </row>
-    <row r="23" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="16.5">
       <c r="A23" s="52"/>
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
@@ -1937,7 +2028,7 @@
       <c r="V23" s="76"/>
       <c r="W23" s="75"/>
     </row>
-    <row r="24" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="16.5">
       <c r="A24" s="52"/>
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
@@ -1962,7 +2053,7 @@
       <c r="V24" s="70"/>
       <c r="W24" s="63"/>
     </row>
-    <row r="25" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="16.5">
       <c r="A25" s="52"/>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
@@ -1987,7 +2078,7 @@
       <c r="V25" s="60"/>
       <c r="W25" s="71"/>
     </row>
-    <row r="26" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="16.5">
       <c r="A26" s="52"/>
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
@@ -2012,7 +2103,7 @@
       <c r="V26" s="60"/>
       <c r="W26" s="71"/>
     </row>
-    <row r="27" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="16.5">
       <c r="A27" s="52"/>
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
@@ -2037,7 +2128,7 @@
       <c r="V27" s="60"/>
       <c r="W27" s="71"/>
     </row>
-    <row r="28" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="16.5">
       <c r="A28" s="52"/>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
@@ -2062,7 +2153,7 @@
       <c r="V28" s="76"/>
       <c r="W28" s="75"/>
     </row>
-    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="16.5">
       <c r="A29" s="52"/>
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
@@ -2087,7 +2178,7 @@
       <c r="V29" s="60"/>
       <c r="W29" s="78"/>
     </row>
-    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="16.5">
       <c r="A30" s="52"/>
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
@@ -2112,7 +2203,7 @@
       <c r="V30" s="60"/>
       <c r="W30" s="71"/>
     </row>
-    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="16.5">
       <c r="A31" s="52"/>
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
@@ -2137,7 +2228,7 @@
       <c r="V31" s="60"/>
       <c r="W31" s="71"/>
     </row>
-    <row r="32" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="16.5">
       <c r="A32" s="52"/>
       <c r="B32" s="52"/>
       <c r="C32" s="52"/>
@@ -2162,7 +2253,7 @@
       <c r="V32" s="60"/>
       <c r="W32" s="71"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5">
       <c r="A33" s="52"/>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
@@ -2187,7 +2278,7 @@
       <c r="V33" s="60"/>
       <c r="W33" s="71"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5">
       <c r="A34" s="52"/>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
@@ -2212,7 +2303,7 @@
       <c r="V34" s="60"/>
       <c r="W34" s="71"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5">
       <c r="A35" s="52"/>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
@@ -2237,7 +2328,7 @@
       <c r="V35" s="60"/>
       <c r="W35" s="71"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5">
       <c r="A36" s="52"/>
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>
@@ -2262,7 +2353,7 @@
       <c r="V36" s="60"/>
       <c r="W36" s="71"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5">
       <c r="A37" s="52"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -2287,7 +2378,7 @@
       <c r="V37" s="60"/>
       <c r="W37" s="71"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5">
       <c r="A38" s="52"/>
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
@@ -2312,7 +2403,7 @@
       <c r="V38" s="60"/>
       <c r="W38" s="71"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5">
       <c r="A39" s="52"/>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
@@ -2337,7 +2428,7 @@
       <c r="V39" s="60"/>
       <c r="W39" s="71"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5">
       <c r="A40" s="52"/>
       <c r="B40" s="52"/>
       <c r="C40" s="52"/>
@@ -2362,7 +2453,7 @@
       <c r="V40" s="70"/>
       <c r="W40" s="71"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5">
       <c r="A41" s="52"/>
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
@@ -2387,7 +2478,7 @@
       <c r="V41" s="70"/>
       <c r="W41" s="71"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5">
       <c r="A42" s="52"/>
       <c r="B42" s="52"/>
       <c r="C42" s="52"/>
@@ -2412,7 +2503,7 @@
       <c r="V42" s="60"/>
       <c r="W42" s="61"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5">
       <c r="A43" s="52"/>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
@@ -2437,7 +2528,7 @@
       <c r="V43" s="60"/>
       <c r="W43" s="61"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5">
       <c r="A44" s="52"/>
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>
@@ -2462,7 +2553,7 @@
       <c r="V44" s="60"/>
       <c r="W44" s="61"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5">
       <c r="A45" s="52"/>
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
@@ -2487,7 +2578,7 @@
       <c r="V45" s="60"/>
       <c r="W45" s="61"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5">
       <c r="A46" s="52"/>
       <c r="B46" s="52"/>
       <c r="C46" s="52"/>
@@ -2512,7 +2603,7 @@
       <c r="V46" s="60"/>
       <c r="W46" s="61"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5">
       <c r="A47" s="52"/>
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
@@ -2537,7 +2628,7 @@
       <c r="V47" s="60"/>
       <c r="W47" s="61"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5">
       <c r="A48" s="52"/>
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
@@ -2562,7 +2653,7 @@
       <c r="V48" s="60"/>
       <c r="W48" s="61"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5">
       <c r="A49" s="60"/>
       <c r="B49" s="60"/>
       <c r="C49" s="60"/>
@@ -2587,7 +2678,7 @@
       <c r="V49" s="60"/>
       <c r="W49" s="61"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5">
       <c r="A50" s="60"/>
       <c r="B50" s="60"/>
       <c r="C50" s="60"/>
@@ -2612,7 +2703,7 @@
       <c r="V50" s="60"/>
       <c r="W50" s="61"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5">
       <c r="A51" s="60"/>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
@@ -2637,7 +2728,7 @@
       <c r="V51" s="60"/>
       <c r="W51" s="61"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5">
       <c r="A52" s="60"/>
       <c r="B52" s="60"/>
       <c r="C52" s="60"/>
@@ -2662,7 +2753,7 @@
       <c r="V52" s="60"/>
       <c r="W52" s="61"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5">
       <c r="A53" s="60"/>
       <c r="B53" s="60"/>
       <c r="C53" s="60"/>
@@ -2687,7 +2778,7 @@
       <c r="V53" s="60"/>
       <c r="W53" s="61"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5">
       <c r="A54" s="60"/>
       <c r="B54" s="60"/>
       <c r="C54" s="60"/>
@@ -2712,7 +2803,7 @@
       <c r="V54" s="60"/>
       <c r="W54" s="61"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5">
       <c r="A55" s="60"/>
       <c r="B55" s="60"/>
       <c r="C55" s="60"/>
@@ -2737,7 +2828,7 @@
       <c r="V55" s="60"/>
       <c r="W55" s="61"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5">
       <c r="A56" s="60"/>
       <c r="B56" s="60"/>
       <c r="C56" s="60"/>
@@ -2762,7 +2853,7 @@
       <c r="V56" s="60"/>
       <c r="W56" s="61"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5">
       <c r="A57" s="60"/>
       <c r="B57" s="60"/>
       <c r="C57" s="60"/>
@@ -2787,7 +2878,7 @@
       <c r="V57" s="60"/>
       <c r="W57" s="61"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5">
       <c r="A58" s="60"/>
       <c r="B58" s="60"/>
       <c r="C58" s="60"/>
@@ -2812,7 +2903,7 @@
       <c r="V58" s="60"/>
       <c r="W58" s="61"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5">
       <c r="A59" s="60"/>
       <c r="B59" s="60"/>
       <c r="C59" s="60"/>
@@ -2837,7 +2928,7 @@
       <c r="V59" s="60"/>
       <c r="W59" s="61"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5">
       <c r="A60" s="60"/>
       <c r="B60" s="60"/>
       <c r="C60" s="60"/>
@@ -2862,7 +2953,7 @@
       <c r="V60" s="60"/>
       <c r="W60" s="61"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5">
       <c r="A61" s="60"/>
       <c r="B61" s="60"/>
       <c r="C61" s="60"/>
@@ -2887,7 +2978,7 @@
       <c r="V61" s="60"/>
       <c r="W61" s="61"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5">
       <c r="A62" s="60"/>
       <c r="B62" s="60"/>
       <c r="C62" s="60"/>
@@ -2912,7 +3003,7 @@
       <c r="V62" s="60"/>
       <c r="W62" s="61"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5">
       <c r="A63" s="60"/>
       <c r="B63" s="60"/>
       <c r="C63" s="60"/>
@@ -2937,7 +3028,7 @@
       <c r="V63" s="60"/>
       <c r="W63" s="61"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5">
       <c r="A64" s="60"/>
       <c r="B64" s="60"/>
       <c r="C64" s="60"/>
@@ -2962,7 +3053,7 @@
       <c r="V64" s="60"/>
       <c r="W64" s="61"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5">
       <c r="A65" s="60"/>
       <c r="B65" s="60"/>
       <c r="C65" s="60"/>
@@ -2987,7 +3078,7 @@
       <c r="V65" s="60"/>
       <c r="W65" s="61"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5">
       <c r="A66" s="60"/>
       <c r="B66" s="60"/>
       <c r="C66" s="60"/>
@@ -3012,7 +3103,7 @@
       <c r="V66" s="60"/>
       <c r="W66" s="61"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5">
       <c r="A67" s="60"/>
       <c r="B67" s="60"/>
       <c r="C67" s="60"/>
@@ -3037,7 +3128,7 @@
       <c r="V67" s="60"/>
       <c r="W67" s="61"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5">
       <c r="A68" s="60"/>
       <c r="B68" s="60"/>
       <c r="C68" s="60"/>
@@ -3062,7 +3153,7 @@
       <c r="V68" s="60"/>
       <c r="W68" s="61"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5">
       <c r="A69" s="60"/>
       <c r="B69" s="60"/>
       <c r="C69" s="60"/>
@@ -3087,7 +3178,7 @@
       <c r="V69" s="60"/>
       <c r="W69" s="61"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5">
       <c r="A70" s="60"/>
       <c r="B70" s="60"/>
       <c r="C70" s="60"/>
@@ -3112,7 +3203,7 @@
       <c r="V70" s="60"/>
       <c r="W70" s="61"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5">
       <c r="A71" s="60"/>
       <c r="B71" s="60"/>
       <c r="C71" s="60"/>
@@ -3137,7 +3228,7 @@
       <c r="V71" s="60"/>
       <c r="W71" s="61"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5">
       <c r="A72" s="60"/>
       <c r="B72" s="60"/>
       <c r="C72" s="60"/>
@@ -3162,7 +3253,7 @@
       <c r="V72" s="60"/>
       <c r="W72" s="61"/>
     </row>
-    <row r="73" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" ht="16.5">
       <c r="A73" s="60"/>
       <c r="B73" s="60"/>
       <c r="C73" s="60"/>
@@ -3187,7 +3278,7 @@
       <c r="V73" s="60"/>
       <c r="W73" s="61"/>
     </row>
-    <row r="74" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" ht="16.5">
       <c r="A74" s="60"/>
       <c r="B74" s="60"/>
       <c r="C74" s="60"/>
@@ -3212,7 +3303,7 @@
       <c r="V74" s="60"/>
       <c r="W74" s="61"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23">
       <c r="A75" s="60"/>
       <c r="B75" s="60"/>
       <c r="C75" s="60"/>
@@ -3237,7 +3328,7 @@
       <c r="V75" s="60"/>
       <c r="W75" s="61"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23">
       <c r="A76" s="60"/>
       <c r="B76" s="60"/>
       <c r="C76" s="60"/>
@@ -3262,7 +3353,7 @@
       <c r="V76" s="60"/>
       <c r="W76" s="61"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23">
       <c r="A77" s="60"/>
       <c r="B77" s="60"/>
       <c r="C77" s="60"/>
@@ -3287,7 +3378,7 @@
       <c r="V77" s="60"/>
       <c r="W77" s="61"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23">
       <c r="A78" s="60"/>
       <c r="B78" s="60"/>
       <c r="C78" s="60"/>
@@ -3312,7 +3403,7 @@
       <c r="V78" s="60"/>
       <c r="W78" s="61"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23">
       <c r="A79" s="60"/>
       <c r="B79" s="60"/>
       <c r="C79" s="60"/>
@@ -3337,7 +3428,7 @@
       <c r="V79" s="60"/>
       <c r="W79" s="61"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:23">
       <c r="A80" s="60"/>
       <c r="B80" s="60"/>
       <c r="C80" s="60"/>
@@ -3362,7 +3453,7 @@
       <c r="V80" s="60"/>
       <c r="W80" s="61"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:23">
       <c r="A81" s="60"/>
       <c r="B81" s="60"/>
       <c r="C81" s="60"/>
@@ -3387,7 +3478,7 @@
       <c r="V81" s="60"/>
       <c r="W81" s="61"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:23">
       <c r="A82" s="60"/>
       <c r="B82" s="60"/>
       <c r="C82" s="60"/>
@@ -3412,7 +3503,7 @@
       <c r="V82" s="60"/>
       <c r="W82" s="61"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:23">
       <c r="A83" s="60"/>
       <c r="B83" s="60"/>
       <c r="C83" s="60"/>
@@ -3437,7 +3528,7 @@
       <c r="V83" s="60"/>
       <c r="W83" s="61"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:23">
       <c r="A84" s="60"/>
       <c r="B84" s="60"/>
       <c r="C84" s="60"/>
@@ -3462,7 +3553,7 @@
       <c r="V84" s="60"/>
       <c r="W84" s="61"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:23">
       <c r="A85" s="60"/>
       <c r="B85" s="60"/>
       <c r="C85" s="60"/>
@@ -3487,7 +3578,7 @@
       <c r="V85" s="60"/>
       <c r="W85" s="61"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:23">
       <c r="A86" s="60"/>
       <c r="B86" s="60"/>
       <c r="C86" s="60"/>
@@ -3512,7 +3603,7 @@
       <c r="V86" s="60"/>
       <c r="W86" s="61"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:23">
       <c r="A87" s="60"/>
       <c r="B87" s="60"/>
       <c r="C87" s="60"/>
@@ -3537,7 +3628,7 @@
       <c r="V87" s="60"/>
       <c r="W87" s="61"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:23">
       <c r="A88" s="60"/>
       <c r="B88" s="60"/>
       <c r="C88" s="60"/>
@@ -3562,7 +3653,7 @@
       <c r="V88" s="60"/>
       <c r="W88" s="61"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:23">
       <c r="A89" s="60"/>
       <c r="B89" s="60"/>
       <c r="C89" s="60"/>
@@ -3587,7 +3678,7 @@
       <c r="V89" s="60"/>
       <c r="W89" s="61"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:23">
       <c r="A90" s="60"/>
       <c r="B90" s="60"/>
       <c r="C90" s="60"/>
@@ -3612,7 +3703,7 @@
       <c r="V90" s="60"/>
       <c r="W90" s="61"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:23">
       <c r="A91" s="60"/>
       <c r="B91" s="60"/>
       <c r="C91" s="60"/>
@@ -3637,7 +3728,7 @@
       <c r="V91" s="60"/>
       <c r="W91" s="61"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:23">
       <c r="A92" s="60"/>
       <c r="B92" s="60"/>
       <c r="C92" s="60"/>
@@ -3662,7 +3753,7 @@
       <c r="V92" s="60"/>
       <c r="W92" s="61"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:23">
       <c r="A93" s="60"/>
       <c r="B93" s="60"/>
       <c r="C93" s="60"/>
@@ -3687,7 +3778,7 @@
       <c r="V93" s="60"/>
       <c r="W93" s="61"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:23">
       <c r="A94" s="60"/>
       <c r="B94" s="60"/>
       <c r="C94" s="60"/>
@@ -3712,7 +3803,7 @@
       <c r="V94" s="60"/>
       <c r="W94" s="61"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:23">
       <c r="A95" s="60"/>
       <c r="B95" s="60"/>
       <c r="C95" s="60"/>
@@ -3737,7 +3828,7 @@
       <c r="V95" s="60"/>
       <c r="W95" s="61"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:23">
       <c r="A96" s="60"/>
       <c r="B96" s="60"/>
       <c r="C96" s="60"/>
@@ -3762,7 +3853,7 @@
       <c r="V96" s="60"/>
       <c r="W96" s="61"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:23">
       <c r="A97" s="60"/>
       <c r="B97" s="60"/>
       <c r="C97" s="60"/>
@@ -3787,7 +3878,7 @@
       <c r="V97" s="60"/>
       <c r="W97" s="61"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:23">
       <c r="A98" s="60"/>
       <c r="B98" s="60"/>
       <c r="C98" s="60"/>
@@ -3812,7 +3903,7 @@
       <c r="V98" s="60"/>
       <c r="W98" s="61"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:23">
       <c r="A99" s="60"/>
       <c r="B99" s="60"/>
       <c r="C99" s="60"/>
@@ -3837,7 +3928,7 @@
       <c r="V99" s="60"/>
       <c r="W99" s="61"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:23">
       <c r="A100" s="60"/>
       <c r="B100" s="60"/>
       <c r="C100" s="60"/>
@@ -3862,7 +3953,7 @@
       <c r="V100" s="60"/>
       <c r="W100" s="61"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:23">
       <c r="A101" s="60"/>
       <c r="B101" s="60"/>
       <c r="C101" s="60"/>
@@ -3887,7 +3978,7 @@
       <c r="V101" s="60"/>
       <c r="W101" s="61"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:23">
       <c r="A102" s="60"/>
       <c r="B102" s="60"/>
       <c r="C102" s="60"/>
@@ -3912,7 +4003,7 @@
       <c r="V102" s="60"/>
       <c r="W102" s="61"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:23">
       <c r="A103" s="60"/>
       <c r="B103" s="60"/>
       <c r="C103" s="60"/>
@@ -3937,7 +4028,7 @@
       <c r="V103" s="60"/>
       <c r="W103" s="61"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:23">
       <c r="A104" s="60"/>
       <c r="B104" s="60"/>
       <c r="C104" s="60"/>
@@ -3962,7 +4053,7 @@
       <c r="V104" s="60"/>
       <c r="W104" s="61"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:23">
       <c r="A105" s="60"/>
       <c r="B105" s="60"/>
       <c r="C105" s="60"/>
@@ -3987,7 +4078,7 @@
       <c r="V105" s="60"/>
       <c r="W105" s="61"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:23">
       <c r="A106" s="60"/>
       <c r="B106" s="60"/>
       <c r="C106" s="60"/>
@@ -4012,7 +4103,7 @@
       <c r="V106" s="60"/>
       <c r="W106" s="61"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:23">
       <c r="A107" s="60"/>
       <c r="B107" s="60"/>
       <c r="C107" s="60"/>
@@ -4037,7 +4128,7 @@
       <c r="V107" s="60"/>
       <c r="W107" s="61"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:23">
       <c r="A108" s="60"/>
       <c r="B108" s="60"/>
       <c r="C108" s="60"/>
@@ -4062,7 +4153,7 @@
       <c r="V108" s="60"/>
       <c r="W108" s="61"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:23">
       <c r="A109" s="60"/>
       <c r="B109" s="60"/>
       <c r="C109" s="60"/>
@@ -4087,7 +4178,7 @@
       <c r="V109" s="60"/>
       <c r="W109" s="61"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:23">
       <c r="A110" s="60"/>
       <c r="B110" s="60"/>
       <c r="C110" s="60"/>
@@ -4112,7 +4203,7 @@
       <c r="V110" s="60"/>
       <c r="W110" s="61"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:23">
       <c r="A111" s="60"/>
       <c r="B111" s="60"/>
       <c r="C111" s="60"/>
@@ -4137,7 +4228,7 @@
       <c r="V111" s="60"/>
       <c r="W111" s="61"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:23">
       <c r="A112" s="60"/>
       <c r="B112" s="60"/>
       <c r="C112" s="60"/>
@@ -4162,7 +4253,7 @@
       <c r="V112" s="60"/>
       <c r="W112" s="61"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:23">
       <c r="A113" s="60"/>
       <c r="B113" s="60"/>
       <c r="C113" s="60"/>
@@ -4187,7 +4278,7 @@
       <c r="V113" s="60"/>
       <c r="W113" s="61"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:23">
       <c r="A114" s="60"/>
       <c r="B114" s="60"/>
       <c r="C114" s="60"/>
@@ -4212,7 +4303,7 @@
       <c r="V114" s="60"/>
       <c r="W114" s="61"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:23">
       <c r="A115" s="60"/>
       <c r="B115" s="60"/>
       <c r="C115" s="60"/>
@@ -4237,7 +4328,7 @@
       <c r="V115" s="60"/>
       <c r="W115" s="61"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:23">
       <c r="A116" s="60"/>
       <c r="B116" s="60"/>
       <c r="C116" s="60"/>
@@ -4262,7 +4353,7 @@
       <c r="V116" s="60"/>
       <c r="W116" s="61"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:23">
       <c r="A117" s="60"/>
       <c r="B117" s="60"/>
       <c r="C117" s="60"/>
@@ -4287,7 +4378,7 @@
       <c r="V117" s="60"/>
       <c r="W117" s="61"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:23">
       <c r="A118" s="60"/>
       <c r="B118" s="60"/>
       <c r="C118" s="60"/>
@@ -4312,7 +4403,7 @@
       <c r="V118" s="60"/>
       <c r="W118" s="61"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:23">
       <c r="A119" s="60"/>
       <c r="B119" s="60"/>
       <c r="C119" s="60"/>
@@ -4337,7 +4428,7 @@
       <c r="V119" s="60"/>
       <c r="W119" s="61"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:23">
       <c r="A120" s="60"/>
       <c r="B120" s="60"/>
       <c r="C120" s="60"/>
@@ -4362,7 +4453,7 @@
       <c r="V120" s="60"/>
       <c r="W120" s="61"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:23">
       <c r="A121" s="60"/>
       <c r="B121" s="60"/>
       <c r="C121" s="60"/>
@@ -4387,7 +4478,7 @@
       <c r="V121" s="60"/>
       <c r="W121" s="61"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:23">
       <c r="A122" s="60"/>
       <c r="B122" s="60"/>
       <c r="C122" s="60"/>
@@ -4412,7 +4503,7 @@
       <c r="V122" s="60"/>
       <c r="W122" s="61"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:23">
       <c r="A123" s="60"/>
       <c r="B123" s="60"/>
       <c r="C123" s="60"/>
@@ -4437,7 +4528,7 @@
       <c r="V123" s="60"/>
       <c r="W123" s="61"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:23">
       <c r="A124" s="60"/>
       <c r="B124" s="60"/>
       <c r="C124" s="60"/>
@@ -4462,7 +4553,7 @@
       <c r="V124" s="60"/>
       <c r="W124" s="61"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:23">
       <c r="A125" s="60"/>
       <c r="B125" s="60"/>
       <c r="C125" s="60"/>
@@ -4487,7 +4578,7 @@
       <c r="V125" s="60"/>
       <c r="W125" s="61"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:23">
       <c r="A126" s="60"/>
       <c r="B126" s="60"/>
       <c r="C126" s="60"/>
@@ -4512,7 +4603,7 @@
       <c r="V126" s="60"/>
       <c r="W126" s="61"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:23">
       <c r="A127" s="60"/>
       <c r="B127" s="60"/>
       <c r="C127" s="60"/>
@@ -4537,7 +4628,7 @@
       <c r="V127" s="60"/>
       <c r="W127" s="61"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:23">
       <c r="A128" s="60"/>
       <c r="B128" s="60"/>
       <c r="C128" s="60"/>
@@ -4562,7 +4653,7 @@
       <c r="V128" s="60"/>
       <c r="W128" s="61"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:23">
       <c r="A129" s="60"/>
       <c r="B129" s="60"/>
       <c r="C129" s="60"/>
@@ -4587,7 +4678,7 @@
       <c r="V129" s="60"/>
       <c r="W129" s="61"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:23">
       <c r="A130" s="60"/>
       <c r="B130" s="60"/>
       <c r="C130" s="60"/>
@@ -4612,7 +4703,7 @@
       <c r="V130" s="60"/>
       <c r="W130" s="61"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:23">
       <c r="A131" s="60"/>
       <c r="B131" s="60"/>
       <c r="C131" s="60"/>
@@ -4633,7 +4724,7 @@
       <c r="R131" s="61"/>
       <c r="W131" s="61"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:23">
       <c r="A132" s="60"/>
       <c r="B132" s="60"/>
       <c r="C132" s="60"/>
@@ -4654,7 +4745,7 @@
       <c r="R132" s="61"/>
       <c r="W132" s="61"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:23">
       <c r="A133" s="60"/>
       <c r="B133" s="60"/>
       <c r="C133" s="60"/>
@@ -4675,7 +4766,7 @@
       <c r="R133" s="61"/>
       <c r="W133" s="61"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:23">
       <c r="A134" s="60"/>
       <c r="B134" s="60"/>
       <c r="C134" s="60"/>
@@ -4696,7 +4787,7 @@
       <c r="R134" s="61"/>
       <c r="W134" s="61"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:23">
       <c r="A135" s="60"/>
       <c r="B135" s="60"/>
       <c r="C135" s="60"/>
@@ -4717,7 +4808,7 @@
       <c r="R135" s="61"/>
       <c r="W135" s="61"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:23">
       <c r="A136" s="60"/>
       <c r="B136" s="60"/>
       <c r="C136" s="60"/>
@@ -4738,7 +4829,7 @@
       <c r="R136" s="61"/>
       <c r="W136" s="61"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:23">
       <c r="A137" s="60"/>
       <c r="B137" s="60"/>
       <c r="C137" s="60"/>
@@ -4759,7 +4850,7 @@
       <c r="R137" s="61"/>
       <c r="W137" s="61"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:23">
       <c r="A138" s="60"/>
       <c r="B138" s="60"/>
       <c r="C138" s="60"/>
@@ -4780,7 +4871,7 @@
       <c r="R138" s="61"/>
       <c r="W138" s="61"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:23">
       <c r="A139" s="60"/>
       <c r="B139" s="60"/>
       <c r="C139" s="60"/>
@@ -4801,7 +4892,7 @@
       <c r="R139" s="61"/>
       <c r="W139" s="61"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:23">
       <c r="A140" s="60"/>
       <c r="B140" s="60"/>
       <c r="C140" s="60"/>
@@ -4822,7 +4913,7 @@
       <c r="R140" s="61"/>
       <c r="W140" s="61"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:23">
       <c r="A141" s="60"/>
       <c r="B141" s="60"/>
       <c r="C141" s="60"/>
@@ -4843,7 +4934,7 @@
       <c r="R141" s="61"/>
       <c r="W141" s="61"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:23">
       <c r="A142" s="60"/>
       <c r="B142" s="60"/>
       <c r="C142" s="60"/>
@@ -4864,7 +4955,7 @@
       <c r="R142" s="61"/>
       <c r="W142" s="61"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:23">
       <c r="A143" s="60"/>
       <c r="B143" s="60"/>
       <c r="C143" s="60"/>
@@ -4885,7 +4976,7 @@
       <c r="R143" s="61"/>
       <c r="W143" s="61"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:23">
       <c r="A144" s="60"/>
       <c r="B144" s="60"/>
       <c r="C144" s="60"/>
@@ -4906,7 +4997,7 @@
       <c r="R144" s="61"/>
       <c r="W144" s="61"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:23">
       <c r="A145" s="60"/>
       <c r="B145" s="60"/>
       <c r="C145" s="60"/>
@@ -4927,7 +5018,7 @@
       <c r="R145" s="61"/>
       <c r="W145" s="61"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:23">
       <c r="A146" s="60"/>
       <c r="B146" s="60"/>
       <c r="C146" s="60"/>
@@ -4948,7 +5039,7 @@
       <c r="R146" s="61"/>
       <c r="W146" s="61"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:23">
       <c r="A147" s="60"/>
       <c r="B147" s="60"/>
       <c r="C147" s="60"/>
@@ -4969,7 +5060,7 @@
       <c r="R147" s="61"/>
       <c r="W147" s="61"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:23">
       <c r="A148" s="60"/>
       <c r="B148" s="60"/>
       <c r="C148" s="60"/>
@@ -4990,7 +5081,7 @@
       <c r="R148" s="61"/>
       <c r="W148" s="61"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:23">
       <c r="A149" s="60"/>
       <c r="B149" s="60"/>
       <c r="C149" s="60"/>
@@ -5011,7 +5102,7 @@
       <c r="R149" s="61"/>
       <c r="W149" s="61"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:23">
       <c r="A150" s="60"/>
       <c r="B150" s="60"/>
       <c r="C150" s="60"/>
@@ -5032,7 +5123,7 @@
       <c r="R150" s="61"/>
       <c r="W150" s="61"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:23">
       <c r="A151" s="60"/>
       <c r="B151" s="60"/>
       <c r="C151" s="60"/>
@@ -5053,7 +5144,7 @@
       <c r="R151" s="61"/>
       <c r="W151" s="61"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:23">
       <c r="A152" s="60"/>
       <c r="B152" s="60"/>
       <c r="C152" s="60"/>
@@ -5074,7 +5165,7 @@
       <c r="R152" s="61"/>
       <c r="W152" s="61"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:23">
       <c r="A153" s="60"/>
       <c r="B153" s="60"/>
       <c r="C153" s="60"/>
@@ -5095,7 +5186,7 @@
       <c r="R153" s="61"/>
       <c r="W153" s="61"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:23">
       <c r="A154" s="60"/>
       <c r="B154" s="60"/>
       <c r="C154" s="60"/>
@@ -5116,7 +5207,7 @@
       <c r="R154" s="61"/>
       <c r="W154" s="61"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:23">
       <c r="A155" s="60"/>
       <c r="B155" s="60"/>
       <c r="C155" s="60"/>
@@ -5137,7 +5228,7 @@
       <c r="R155" s="61"/>
       <c r="W155" s="61"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:23">
       <c r="A156" s="60"/>
       <c r="B156" s="60"/>
       <c r="C156" s="60"/>
@@ -5158,7 +5249,7 @@
       <c r="R156" s="61"/>
       <c r="W156" s="61"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:23">
       <c r="A157" s="60"/>
       <c r="B157" s="60"/>
       <c r="C157" s="60"/>
@@ -5179,7 +5270,7 @@
       <c r="R157" s="61"/>
       <c r="W157" s="61"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:23">
       <c r="A158" s="60"/>
       <c r="B158" s="60"/>
       <c r="C158" s="60"/>
@@ -5200,7 +5291,7 @@
       <c r="R158" s="61"/>
       <c r="W158" s="61"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:23">
       <c r="A159" s="60"/>
       <c r="B159" s="60"/>
       <c r="C159" s="60"/>
@@ -5221,7 +5312,7 @@
       <c r="R159" s="61"/>
       <c r="W159" s="61"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:23">
       <c r="A160" s="60"/>
       <c r="B160" s="60"/>
       <c r="C160" s="60"/>
@@ -5242,7 +5333,7 @@
       <c r="R160" s="61"/>
       <c r="W160" s="61"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:23">
       <c r="A161" s="60"/>
       <c r="B161" s="60"/>
       <c r="C161" s="60"/>
@@ -5263,7 +5354,7 @@
       <c r="R161" s="61"/>
       <c r="W161" s="61"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:23">
       <c r="A162" s="60"/>
       <c r="B162" s="60"/>
       <c r="C162" s="60"/>
@@ -5284,7 +5375,7 @@
       <c r="R162" s="61"/>
       <c r="W162" s="61"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:23">
       <c r="A163" s="60"/>
       <c r="B163" s="60"/>
       <c r="C163" s="60"/>
@@ -5305,7 +5396,7 @@
       <c r="R163" s="61"/>
       <c r="W163" s="61"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:23">
       <c r="A164" s="60"/>
       <c r="B164" s="60"/>
       <c r="C164" s="60"/>
@@ -5326,7 +5417,7 @@
       <c r="R164" s="61"/>
       <c r="W164" s="61"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:23">
       <c r="A165" s="60"/>
       <c r="B165" s="60"/>
       <c r="C165" s="60"/>
@@ -5374,20 +5465,23 @@
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
@@ -5407,7 +5501,7 @@
     <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>23</v>
       </c>
@@ -5463,7 +5557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5483,7 +5577,7 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="43"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -5503,7 +5597,7 @@
       <c r="Q3" s="43"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -5530,14 +5624,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
@@ -5549,7 +5643,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="80" t="s">
         <v>39</v>
       </c>
@@ -5564,7 +5658,7 @@
       <c r="J1" s="81"/>
       <c r="K1" s="81"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
@@ -5599,7 +5693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="82"/>
       <c r="B3" s="82"/>
       <c r="C3" s="20"/>
@@ -5612,7 +5706,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="83"/>
       <c r="B4" s="84"/>
       <c r="C4" s="20"/>
@@ -5625,7 +5719,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="82"/>
       <c r="B5" s="82"/>
       <c r="C5" s="20"/>
@@ -5638,7 +5732,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="20"/>
@@ -5651,7 +5745,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="20"/>
@@ -5664,7 +5758,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="20"/>
@@ -5677,7 +5771,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="20"/>
@@ -5690,7 +5784,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="83"/>
       <c r="B10" s="83"/>
       <c r="C10" s="20"/>
@@ -5703,7 +5797,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5730,14 +5824,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -5752,7 +5846,7 @@
     <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
@@ -5769,7 +5863,7 @@
       <c r="L1" s="85"/>
       <c r="M1" s="86"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="87"/>
       <c r="B2" s="87"/>
       <c r="C2" s="87"/>
@@ -5784,7 +5878,7 @@
       <c r="L2" s="87"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -5825,7 +5919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5840,7 +5934,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5855,7 +5949,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -5870,7 +5964,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5885,7 +5979,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5900,7 +5994,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5915,7 +6009,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5930,7 +6024,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5945,7 +6039,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5960,7 +6054,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5975,7 +6069,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5990,7 +6084,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6005,7 +6099,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6044,14 +6138,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6066,7 +6160,7 @@
     <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
@@ -6083,7 +6177,7 @@
       <c r="L1" s="85"/>
       <c r="M1" s="86"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="87"/>
       <c r="B2" s="87"/>
       <c r="C2" s="87"/>
@@ -6098,7 +6192,7 @@
       <c r="L2" s="87"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6139,7 +6233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6154,7 +6248,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6169,7 +6263,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6184,7 +6278,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6199,7 +6293,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6214,7 +6308,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6229,7 +6323,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6244,7 +6338,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6259,7 +6353,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6274,7 +6368,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6289,7 +6383,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6304,7 +6398,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6319,7 +6413,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6358,14 +6452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6380,7 +6474,7 @@
     <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
@@ -6397,7 +6491,7 @@
       <c r="L1" s="85"/>
       <c r="M1" s="86"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="87"/>
       <c r="B2" s="87"/>
       <c r="C2" s="87"/>
@@ -6412,7 +6506,7 @@
       <c r="L2" s="87"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6453,7 +6547,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6468,7 +6562,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6483,7 +6577,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6498,7 +6592,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6513,7 +6607,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6528,7 +6622,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6543,7 +6637,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6558,7 +6652,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6573,7 +6667,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6588,7 +6682,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6603,7 +6697,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6618,7 +6712,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6633,7 +6727,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6672,14 +6766,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -6696,7 +6790,7 @@
     <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="85" t="s">
         <v>50</v>
       </c>
@@ -6713,7 +6807,7 @@
       <c r="L1" s="85"/>
       <c r="M1" s="86"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="87"/>
       <c r="B2" s="87"/>
       <c r="C2" s="87"/>
@@ -6728,7 +6822,7 @@
       <c r="L2" s="87"/>
       <c r="M2" s="88"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -6769,7 +6863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6784,7 +6878,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6799,7 +6893,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -6814,7 +6908,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6829,7 +6923,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6844,7 +6938,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6859,7 +6953,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6874,7 +6968,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6889,7 +6983,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6904,7 +6998,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6919,7 +7013,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6934,7 +7028,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6949,7 +7043,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6988,14 +7082,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7006,7 +7100,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>60</v>
       </c>
@@ -7032,7 +7126,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7042,7 +7136,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7052,7 +7146,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7062,7 +7156,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7072,7 +7166,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7082,7 +7176,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7092,7 +7186,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7102,7 +7196,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7112,7 +7206,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7122,7 +7216,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7132,7 +7226,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7142,7 +7236,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7152,7 +7246,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7162,7 +7256,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7172,7 +7266,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7182,7 +7276,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7192,7 +7286,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7202,7 +7296,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
